--- a/proforma_temp.xlsx
+++ b/proforma_temp.xlsx
@@ -1514,14 +1514,45 @@
       <c r="Y14" s="3" t="n"/>
       <c r="Z14" s="3" t="n"/>
     </row>
-    <row r="15" ht="21.6" customHeight="1"/>
+    <row r="15" ht="21.6" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="23" t="n"/>
+      <c r="C15" s="24" t="n"/>
+      <c r="D15" s="25" t="n"/>
+      <c r="E15" s="26" t="n"/>
+      <c r="F15" s="76" t="n"/>
+      <c r="G15" s="77" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="23" t="n"/>
+      <c r="C16" s="24" t="n"/>
+      <c r="D16" s="25" t="n"/>
+      <c r="E16" s="26" t="n"/>
+      <c r="F16" s="76" t="n"/>
+      <c r="G16" s="77" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="n"/>
+      <c r="B17" s="23" t="n"/>
+      <c r="C17" s="24" t="n"/>
+      <c r="D17" s="25" t="n"/>
+      <c r="E17" s="26" t="n"/>
+      <c r="F17" s="76" t="n"/>
+      <c r="G17" s="77" t="n"/>
+    </row>
     <row r="18" ht="30.75" customHeight="1">
       <c r="A18" s="11" t="inlineStr">
         <is>
           <t>TOTAL:</t>
         </is>
       </c>
+      <c r="B18" s="23" t="n"/>
+      <c r="C18" s="24" t="n"/>
       <c r="D18" s="63" t="n"/>
+      <c r="E18" s="26" t="n"/>
+      <c r="F18" s="76" t="n"/>
+      <c r="G18" s="77" t="n"/>
       <c r="H18" s="83" t="n"/>
       <c r="I18" s="84" t="n"/>
       <c r="J18" s="85">
